--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>time</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>RERx100</t>
+  </si>
+  <si>
+    <t>%VO2Max</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -213,12 +219,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
     <cellStyle name="Accent 1" xfId="8"/>
     <cellStyle name="Accent 2" xfId="9"/>
@@ -233,6 +241,7 @@
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="17" builtinId="5"/>
     <cellStyle name="Status" xfId="14"/>
     <cellStyle name="Text" xfId="15"/>
     <cellStyle name="Warning" xfId="16"/>
@@ -555,7 +564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -701,7 +710,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -838,7 +847,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,7 +993,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:f>Sheet1!$F$2:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1124,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122611584"/>
-        <c:axId val="122613120"/>
+        <c:axId val="52133248"/>
+        <c:axId val="52135040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122611584"/>
+        <c:axId val="52133248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,12 +1147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122613120"/>
+        <c:crossAx val="52135040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122613120"/>
+        <c:axId val="52135040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122611584"/>
+        <c:crossAx val="52133248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1177,6 +1186,423 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heart Rate vs %VO2Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1733888888888889"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%VO2Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8650164430708906E-3"/>
+                  <c:y val="0.50599462738390577"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:t>y = 0.0101x - 0.6486
+R² = 0.9676</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.12280701754385964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0643274853801165E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10818713450292397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6491228070175419E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11695906432748537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20760233918128651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27777777777777773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27192982456140352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34795321637426901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41812865497076024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40350877192982454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48538011695906436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48245614035087714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42690058479532161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49122807017543857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58771929824561397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62573099415204669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67836257309941517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62280701754385959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64912280701754377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76608187134502914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72514619883040932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78070175438596479</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7192982456140351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86257309941520466</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95614035087719296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9385964912280701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97076023391812871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="56867840"/>
+        <c:axId val="56865536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56867840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56865536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="56865536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56867840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41322977443819037"/>
+          <c:y val="0.78807464135476213"/>
+          <c:w val="0.18128909019794492"/>
+          <c:h val="7.8921621355056051E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1496,11 +1922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124020608"/>
-        <c:axId val="124019072"/>
+        <c:axId val="55131520"/>
+        <c:axId val="55129984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124019072"/>
+        <c:axId val="55129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,12 +1962,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124020608"/>
+        <c:crossAx val="55131520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124020608"/>
+        <c:axId val="55131520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,450 +1994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124019072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.02"/>
-          <c:y val="0.02"/>
-          <c:w val="0.8462498263888889"/>
-          <c:h val="0.95999969135802465"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>hh":"mm</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.4583333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2361111111111106E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.013888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8611111111111108E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12569444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14027777777777778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23611111111111113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2638888888888889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29305555555555557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30625000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3215277777777778</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34930555555555554</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.37638888888888888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38958333333333334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41805555555555557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43055555555555558</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.44513888888888892</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45902777777777776</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48680555555555555</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.50138888888888888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51458333333333328</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.52847222222222223</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.54236111111111107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.55624999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56805555555555554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>161</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124096896"/>
-        <c:axId val="124091008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="124091008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="124096896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="124096896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="hh&quot;:&quot;mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="124091008"/>
+        <c:crossAx val="55129984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2075,10 +2058,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9957540097537758E-2"/>
-          <c:y val="1.9986506999494013E-2"/>
-          <c:w val="0.85084938234981466"/>
-          <c:h val="0.96002698600101199"/>
+          <c:x val="0.02"/>
+          <c:y val="0.02"/>
+          <c:w val="0.8462498263888889"/>
+          <c:h val="0.95999969135802465"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2089,11 +2072,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1:$E$1</c:f>
+              <c:f>Sheet1!$D$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RER</c:v>
+                  <c:v>HR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2242,132 +2225,132 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.73</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.62</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.59</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.73</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.75</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.75</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.77</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.82</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.84</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.84</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.04</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.04</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.08</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.08</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,11 +2365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124205696"/>
-        <c:axId val="124204160"/>
+        <c:axId val="55166848"/>
+        <c:axId val="55165312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124204160"/>
+        <c:axId val="55165312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,12 +2405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124205696"/>
+        <c:crossAx val="55166848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124205696"/>
+        <c:axId val="55166848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2437,450 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124204160"/>
+        <c:crossAx val="55165312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.9957540097537758E-2"/>
+          <c:y val="1.9986506999494013E-2"/>
+          <c:w val="0.85084938234981466"/>
+          <c:h val="0.96002698600101199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>hh":"mm</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4583333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2361111111111106E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.013888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8611111111111108E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11180555555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14027777777777778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23611111111111113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29305555555555557</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.30625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3215277777777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36180555555555555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.37638888888888888</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41805555555555557</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44513888888888892</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45902777777777776</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48680555555555555</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50138888888888888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51458333333333328</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54236111111111107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55624999999999991</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56805555555555554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51175808"/>
+        <c:axId val="51174016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51174016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51175808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51175808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="hh&quot;:&quot;mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51174016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2509,13 +2935,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>42861</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -2532,6 +2958,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2902,22 +3358,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D24"/>
+      <selection activeCell="D1" sqref="D1:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2925,773 +3383,1113 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="B2">
         <v>4.2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>$B2/$B$44</f>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="D2">
         <v>78</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D36" si="0">E2*100</f>
+      <c r="E2" s="2">
+        <f>$B2/$B$44</f>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F36" si="0">G2*100</f>
         <v>73</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>3.125E-2</v>
       </c>
       <c r="B3">
         <v>3.1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:E42" si="1">B3/$B$44</f>
+        <v>9.0643274853801165E-2</v>
+      </c>
+      <c r="D3">
         <v>78</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E42" si="2">$B3/$B$44</f>
+        <v>9.0643274853801165E-2</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.78</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="B4">
         <v>3.7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10818713450292397</v>
+      </c>
+      <c r="D4">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10818713450292397</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B5">
         <v>3.3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6491228070175419E-2</v>
+      </c>
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6491228070175419E-2</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>7.013888888888889E-2</v>
       </c>
       <c r="B6">
         <v>3.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="D6">
         <v>84</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11695906432748537</v>
+      </c>
+      <c r="D7">
         <v>76</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11695906432748537</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="B8">
         <v>5.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17251461988304093</v>
+      </c>
+      <c r="D8">
         <v>84</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17251461988304093</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>0.11180555555555555</v>
       </c>
       <c r="B9">
         <v>7.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20760233918128651</v>
+      </c>
+      <c r="D9">
         <v>92</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20760233918128651</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>0.12569444444444444</v>
       </c>
       <c r="B10">
         <v>5.7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10">
         <v>84</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>0.14027777777777778</v>
       </c>
       <c r="B11">
         <v>5.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17251461988304093</v>
+      </c>
+      <c r="D11">
         <v>82</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17251461988304093</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>0.15416666666666667</v>
       </c>
       <c r="B12">
         <v>7.8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22807017543859648</v>
+      </c>
+      <c r="D12">
         <v>88</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22807017543859648</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>0.16805555555555554</v>
       </c>
       <c r="B13">
         <v>7.8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22807017543859648</v>
+      </c>
+      <c r="D13">
         <v>88</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22807017543859648</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.63</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>0.18333333333333332</v>
       </c>
       <c r="B14">
         <v>9.5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="D14">
         <v>90</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>0.19444444444444445</v>
       </c>
       <c r="B15">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27192982456140352</v>
+      </c>
+      <c r="D15">
         <v>94</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27192982456140352</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>0.20902777777777778</v>
       </c>
       <c r="B16">
         <v>11.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34795321637426901</v>
+      </c>
+      <c r="D16">
         <v>97</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34795321637426901</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>0.22361111111111112</v>
       </c>
       <c r="B17">
         <v>14.3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41812865497076024</v>
+      </c>
+      <c r="D17">
         <v>99</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41812865497076024</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.59</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>0.23611111111111113</v>
       </c>
       <c r="B18">
         <v>13.8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40350877192982454</v>
+      </c>
+      <c r="D18">
         <v>102</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40350877192982454</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>0.25</v>
       </c>
       <c r="B19">
         <v>16.600000000000001</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48538011695906436</v>
+      </c>
+      <c r="D19">
         <v>103</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48538011695906436</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>0.2638888888888889</v>
       </c>
       <c r="B20">
         <v>16.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48245614035087714</v>
+      </c>
+      <c r="D20">
         <v>106</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.48245614035087714</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>0.27916666666666667</v>
       </c>
       <c r="B21">
         <v>14.6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42690058479532161</v>
+      </c>
+      <c r="D21">
         <v>114</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.42690058479532161</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.64</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0.29305555555555557</v>
       </c>
       <c r="B22">
         <v>16.8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49122807017543857</v>
+      </c>
+      <c r="D22">
         <v>106</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49122807017543857</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>0.30625000000000002</v>
       </c>
       <c r="B23">
         <v>20.100000000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58771929824561397</v>
+      </c>
+      <c r="D23">
         <v>109</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58771929824561397</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>0.3215277777777778</v>
       </c>
       <c r="B24">
         <v>21.4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62573099415204669</v>
+      </c>
+      <c r="D24">
         <v>117</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62573099415204669</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="B25">
         <v>23.2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.67836257309941517</v>
+      </c>
+      <c r="D25">
         <v>124</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67836257309941517</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>0.34930555555555554</v>
       </c>
       <c r="B26">
         <v>21.3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.62280701754385959</v>
+      </c>
+      <c r="D26">
         <v>126</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62280701754385959</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>0.36180555555555555</v>
       </c>
       <c r="B27">
         <v>22.2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64912280701754377</v>
+      </c>
+      <c r="D27">
         <v>129</v>
       </c>
-      <c r="D27">
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.64912280701754377</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>0.37638888888888888</v>
       </c>
       <c r="B28">
         <v>26.2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.76608187134502914</v>
+      </c>
+      <c r="D28">
         <v>135</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.76608187134502914</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>0.38958333333333334</v>
       </c>
       <c r="B29">
         <v>24.8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72514619883040932</v>
+      </c>
+      <c r="D29">
         <v>138</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72514619883040932</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.82</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>0.40416666666666667</v>
       </c>
       <c r="B30">
         <v>26.7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78070175438596479</v>
+      </c>
+      <c r="D30">
         <v>138</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78070175438596479</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.83</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>0.41805555555555557</v>
       </c>
       <c r="B31">
         <v>24.6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="D31">
         <v>139</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.84</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>0.43055555555555558</v>
       </c>
       <c r="B32">
         <v>29.4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.85964912280701744</v>
+      </c>
+      <c r="D32">
         <v>143</v>
       </c>
-      <c r="D32">
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85964912280701744</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>0.44513888888888892</v>
       </c>
       <c r="B33">
         <v>29.4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.85964912280701744</v>
+      </c>
+      <c r="D33">
         <v>149</v>
       </c>
-      <c r="D33">
+      <c r="E33" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85964912280701744</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>0.45902777777777776</v>
       </c>
       <c r="B34">
         <v>29.5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86257309941520466</v>
+      </c>
+      <c r="D34">
         <v>155</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86257309941520466</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.93</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>0.47222222222222221</v>
       </c>
       <c r="B35">
         <v>32.700000000000003</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.95614035087719296</v>
+      </c>
+      <c r="D35">
         <v>158</v>
       </c>
-      <c r="D35">
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95614035087719296</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.96</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>0.48680555555555555</v>
       </c>
       <c r="B36">
         <v>32.1</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9385964912280701</v>
+      </c>
+      <c r="D36">
         <v>161</v>
       </c>
-      <c r="D36">
+      <c r="E36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9385964912280701</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.99</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>0.50138888888888888</v>
       </c>
       <c r="B37">
         <v>33.200000000000003</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97076023391812871</v>
+      </c>
+      <c r="D37">
         <v>165</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D42" si="1">E37*100</f>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97076023391812871</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F42" si="3">G37*100</f>
         <v>104</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>1.04</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>0.51458333333333328</v>
       </c>
       <c r="B38">
         <v>34.200000000000003</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>167</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
+      <c r="E38" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>1.04</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>0.52847222222222223</v>
       </c>
       <c r="B39">
         <v>33.799999999999997</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98830409356725135</v>
+      </c>
+      <c r="D39">
         <v>169</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
+      <c r="E39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.98830409356725135</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>1.08</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>0.54236111111111107</v>
       </c>
       <c r="B40">
         <v>27.9</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8157894736842104</v>
+      </c>
+      <c r="D40">
         <v>173</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
+      <c r="E40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8157894736842104</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
         <v>109.00000000000001</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>0.55624999999999991</v>
       </c>
       <c r="B41">
         <v>31.7</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92690058479532156</v>
+      </c>
+      <c r="D41">
         <v>170</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
+      <c r="E41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.92690058479532156</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>1.08</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>0.56805555555555554</v>
       </c>
       <c r="B42">
         <v>10.1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29532163742690054</v>
+      </c>
+      <c r="D42">
         <v>161</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
+      <c r="E42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29532163742690054</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
         <v>111.00000000000001</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
-      <c r="D43">
-        <f>MIN(D2:D42)</f>
+      <c r="F43">
+        <f>MIN(F2:F42)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <f>MAX(B2:B42)</f>
+        <v>34.200000000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
     </row>
   </sheetData>

--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="18855" windowHeight="7620"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="18855" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="VO2_time" sheetId="2" r:id="rId2"/>
     <sheet name="HR_time" sheetId="3" r:id="rId3"/>
     <sheet name="RER_time" sheetId="4" r:id="rId4"/>
+    <sheet name="RER_HR" sheetId="6" r:id="rId5"/>
+    <sheet name="RER_HR_Cut" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>time</t>
   </si>
@@ -1133,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52133248"/>
-        <c:axId val="52135040"/>
+        <c:axId val="56873728"/>
+        <c:axId val="56875264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52133248"/>
+        <c:axId val="56873728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,12 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52135040"/>
+        <c:crossAx val="56875264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52135040"/>
+        <c:axId val="56875264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52133248"/>
+        <c:crossAx val="56873728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1536,11 +1538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56867840"/>
-        <c:axId val="56865536"/>
+        <c:axId val="56974336"/>
+        <c:axId val="57370880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56867840"/>
+        <c:axId val="56974336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1553,12 +1555,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56865536"/>
+        <c:crossAx val="57370880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56865536"/>
+        <c:axId val="57370880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1571,7 +1573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56867840"/>
+        <c:crossAx val="56974336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1922,11 +1924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55131520"/>
-        <c:axId val="55129984"/>
+        <c:axId val="58484608"/>
+        <c:axId val="58482688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55129984"/>
+        <c:axId val="58482688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,12 +1964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55131520"/>
+        <c:crossAx val="58484608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55131520"/>
+        <c:axId val="58484608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55129984"/>
+        <c:crossAx val="58482688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2365,11 +2367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55166848"/>
-        <c:axId val="55165312"/>
+        <c:axId val="61083008"/>
+        <c:axId val="61080704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55165312"/>
+        <c:axId val="61080704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,12 +2407,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55166848"/>
+        <c:crossAx val="61083008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55166848"/>
+        <c:axId val="61083008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55165312"/>
+        <c:crossAx val="61080704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2808,11 +2810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51175808"/>
-        <c:axId val="51174016"/>
+        <c:axId val="49894528"/>
+        <c:axId val="99249536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51174016"/>
+        <c:axId val="99249536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,12 +2850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51175808"/>
+        <c:crossAx val="49894528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51175808"/>
+        <c:axId val="49894528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +2882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51174016"/>
+        <c:crossAx val="99249536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2896,6 +2898,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2923,6 +2926,623 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heart Rate vs RERx100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RER_HR!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RERx100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26303324192099303"/>
+                  <c:y val="0.72332281594410597"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RER_HR!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RER_HR!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="58655872"/>
+        <c:axId val="58506624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58655872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58506624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58506624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58655872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54082663433886913"/>
+          <c:y val="0.84643259379276226"/>
+          <c:w val="0.1861290208679072"/>
+          <c:h val="9.9118390871818271E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heart Rate vs RER (x100)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RER_HR_Cut!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RERx100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.3270389338868458"/>
+                  <c:y val="0.64061337056675183"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RER_HR_Cut!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RER_HR_Cut!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="61010688"/>
+        <c:axId val="61008896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61010688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61008896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61008896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61010688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41195792009197002"/>
+          <c:y val="0.86961579251453258"/>
+          <c:w val="0.15235262451984927"/>
+          <c:h val="6.8060831036637529E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2965,16 +3585,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3068,6 +3688,76 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3360,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3432,7 +4122,7 @@
         <v>3.1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:E42" si="1">B3/$B$44</f>
+        <f t="shared" ref="C3:C42" si="1">B3/$B$44</f>
         <v>9.0643274853801165E-2</v>
       </c>
       <c r="D3">
@@ -4560,4 +5250,436 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>106</v>
+      </c>
+      <c r="B20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>135</v>
+      </c>
+      <c r="B28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>138</v>
+      </c>
+      <c r="B29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>138</v>
+      </c>
+      <c r="B30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>139</v>
+      </c>
+      <c r="B31">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>155</v>
+      </c>
+      <c r="B34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>158</v>
+      </c>
+      <c r="B35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>161</v>
+      </c>
+      <c r="B36">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>138</v>
+      </c>
+      <c r="B7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>138</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>143</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>161</v>
+      </c>
+      <c r="B14">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="18855" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="18855" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="VO2_time" sheetId="2" r:id="rId2"/>
-    <sheet name="HR_time" sheetId="3" r:id="rId3"/>
-    <sheet name="RER_time" sheetId="4" r:id="rId4"/>
-    <sheet name="RER_HR" sheetId="6" r:id="rId5"/>
-    <sheet name="RER_HR_Cut" sheetId="7" r:id="rId6"/>
+    <sheet name="RER_HR" sheetId="6" r:id="rId2"/>
+    <sheet name="RER_HR_Cut" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>time</t>
   </si>
@@ -50,6 +48,21 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Est RER</t>
+  </si>
+  <si>
+    <t>%Fat</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh&quot;:&quot;mm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +141,12 @@
       <color rgb="FF333333"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -179,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -199,6 +218,141 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -223,10 +377,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1135,11 +1306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56873728"/>
-        <c:axId val="56875264"/>
+        <c:axId val="115756416"/>
+        <c:axId val="115762304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56873728"/>
+        <c:axId val="115756416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,12 +1320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56875264"/>
+        <c:crossAx val="115762304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56875264"/>
+        <c:axId val="115762304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,14 +1336,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56873728"/>
+        <c:crossAx val="115756416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1538,11 +1708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56974336"/>
-        <c:axId val="57370880"/>
+        <c:axId val="115795456"/>
+        <c:axId val="115796992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56974336"/>
+        <c:axId val="115795456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1555,12 +1725,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57370880"/>
+        <c:crossAx val="115796992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57370880"/>
+        <c:axId val="115796992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1573,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56974336"/>
+        <c:crossAx val="115795456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1605,1336 +1775,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.02"/>
-          <c:y val="0.02"/>
-          <c:w val="0.80324999999999991"/>
-          <c:h val="0.95999969135802465"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VO2/kg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>hh":"mm</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.4583333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2361111111111106E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.013888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8611111111111108E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12569444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14027777777777778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23611111111111113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2638888888888889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29305555555555557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30625000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3215277777777778</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34930555555555554</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.37638888888888888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38958333333333334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41805555555555557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43055555555555558</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.44513888888888892</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45902777777777776</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48680555555555555</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.50138888888888888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51458333333333328</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.52847222222222223</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.54236111111111107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.55624999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56805555555555554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31.7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="58484608"/>
-        <c:axId val="58482688"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="58482688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58484608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="58484608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="hh&quot;:&quot;mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="58482688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.02"/>
-          <c:y val="0.02"/>
-          <c:w val="0.8462498263888889"/>
-          <c:h val="0.95999969135802465"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>hh":"mm</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.4583333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2361111111111106E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.013888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8611111111111108E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12569444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14027777777777778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23611111111111113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2638888888888889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29305555555555557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30625000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3215277777777778</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34930555555555554</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.37638888888888888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38958333333333334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41805555555555557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43055555555555558</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.44513888888888892</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45902777777777776</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48680555555555555</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.50138888888888888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51458333333333328</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.52847222222222223</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.54236111111111107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.55624999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56805555555555554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>161</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="61083008"/>
-        <c:axId val="61080704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="61080704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61083008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="61083008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="hh&quot;:&quot;mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61080704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.9957540097537758E-2"/>
-          <c:y val="1.9986506999494013E-2"/>
-          <c:w val="0.85084938234981466"/>
-          <c:h val="0.96002698600101199"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>hh":"mm</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.4583333333333334E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2361111111111106E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.013888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8611111111111108E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12569444444444444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14027777777777778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16805555555555554</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.18333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.19444444444444445</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20902777777777778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22361111111111112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23611111111111113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2638888888888889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27916666666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29305555555555557</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30625000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3215277777777778</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34930555555555554</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.36180555555555555</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.37638888888888888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38958333333333334</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41805555555555557</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43055555555555558</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.44513888888888892</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45902777777777776</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.47222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48680555555555555</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.50138888888888888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.51458333333333328</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.52847222222222223</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.54236111111111107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.55624999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56805555555555554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="49894528"/>
-        <c:axId val="99249536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="99249536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="49894528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="49894528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="hh&quot;:&quot;mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99249536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3245,11 +2085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="58655872"/>
-        <c:axId val="58506624"/>
+        <c:axId val="123227136"/>
+        <c:axId val="123228928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58655872"/>
+        <c:axId val="123227136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3261,12 +2101,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58506624"/>
+        <c:crossAx val="123228928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58506624"/>
+        <c:axId val="123228928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3279,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58655872"/>
+        <c:crossAx val="123227136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3310,7 +2150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3347,7 +2187,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3363,9 +2203,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -3476,7 +2318,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3486,11 +2328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61010688"/>
-        <c:axId val="61008896"/>
+        <c:axId val="123279232"/>
+        <c:axId val="123280768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61010688"/>
+        <c:axId val="123279232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3503,12 +2345,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61008896"/>
+        <c:crossAx val="123280768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61008896"/>
+        <c:axId val="123280768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -3520,7 +2362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61010688"/>
+        <c:crossAx val="123279232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3537,6 +2379,155 @@
           <c:h val="6.8060831036637529E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34245800524934383"/>
+                  <c:y val="-2.4923447069116361E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127156608"/>
+        <c:axId val="125237888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127156608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125237888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125237888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127156608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3618,81 +2609,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="381" y="381"/>
-    <xdr:ext cx="5759576" cy="3239643"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="381" y="381"/>
-    <xdr:ext cx="5759576" cy="3239643"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="381" y="381"/>
-    <xdr:ext cx="6782053" cy="4268470"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3726,7 +2642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3744,6 +2660,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5194,66 +4145,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5556,127 +4447,668 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3">
+        <f>((0.6681*A2)-9.9697)/100</f>
+        <v>0.68197999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C14" si="0">((0.6681*A3)-9.9697)/100</f>
+        <v>0.72874700000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>126</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.74210899999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76215199999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80223800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>138</v>
+      </c>
+      <c r="B7" s="3">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82228099999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>138</v>
+      </c>
+      <c r="B8" s="3">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82228099999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>139</v>
+      </c>
+      <c r="B9" s="3">
+        <v>84</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82896200000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>143</v>
+      </c>
+      <c r="B10" s="3">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85568600000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>149</v>
+      </c>
+      <c r="B11" s="3">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89577200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>155</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93585800000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>158</v>
+      </c>
+      <c r="B13" s="3">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95590100000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>161</v>
+      </c>
+      <c r="B14" s="3">
+        <v>99</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97594400000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <f>((0.6681*A21)-9.9697)/100</f>
+        <v>0.56840299999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:B35" si="1">((0.6681*A22)-9.9697)/100</f>
+        <v>0.60180800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>110</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63521299999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66861800000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>120</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.70202299999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3">
+        <v>125</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.73542799999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7688330000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>135</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80223800000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83564300000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86904799999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3">
+        <v>150</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90245299999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93585800000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96926299999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0026680000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>170</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.036073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="6">
+        <f>(-3.3333*A8)+3.3333</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="C8" s="7">
+        <f>1-B8</f>
+        <v>1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" ref="B9:B14" si="0">(-3.3333*A9)+3.3333</f>
+        <v>0.83332499999999987</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:C14" si="1">1-B9</f>
+        <v>0.16667500000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66665999999999981</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33334000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49999500000000019</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50000499999999981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333000000000013</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.66666999999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666500000000006</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.83333499999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>117</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>124</v>
-      </c>
-      <c r="B3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>126</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>129</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8">
+        <v>120</v>
+      </c>
+      <c r="B18" s="5">
+        <f>((0.6681*A18)-9.9697)/100</f>
+        <v>0.70202299999999995</v>
+      </c>
+      <c r="C18" s="6">
+        <f>(-3.3333*B18)+3.3333</f>
+        <v>0.99324673409999997</v>
+      </c>
+      <c r="D18" s="9">
+        <f>1-C18</f>
+        <v>6.7532659000000272E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5">
+        <f>((0.6681*A19)-9.9697)/100</f>
+        <v>0.73542799999999997</v>
+      </c>
+      <c r="C19" s="6">
+        <f>(-3.3333*B19)+3.3333</f>
+        <v>0.8818978475999999</v>
+      </c>
+      <c r="D19" s="9">
+        <f>1-C19</f>
+        <v>0.1181021524000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <v>130</v>
+      </c>
+      <c r="B20" s="5">
+        <f>((0.6681*A20)-9.9697)/100</f>
+        <v>0.7688330000000001</v>
+      </c>
+      <c r="C20" s="6">
+        <f>(-3.3333*B20)+3.3333</f>
+        <v>0.77054896109999982</v>
+      </c>
+      <c r="D20" s="9">
+        <f>1-C20</f>
+        <v>0.22945103890000018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
         <v>135</v>
       </c>
-      <c r="B6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>138</v>
-      </c>
-      <c r="B7">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>138</v>
-      </c>
-      <c r="B8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>139</v>
-      </c>
-      <c r="B9">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>143</v>
-      </c>
-      <c r="B10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>149</v>
-      </c>
-      <c r="B11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="B21" s="5">
+        <f>((0.6681*A21)-9.9697)/100</f>
+        <v>0.80223800000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <f>(-3.3333*B21)+3.3333</f>
+        <v>0.65920007460000019</v>
+      </c>
+      <c r="D21" s="9">
+        <f>1-C21</f>
+        <v>0.34079992539999981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
+        <v>140</v>
+      </c>
+      <c r="B22" s="5">
+        <f>((0.6681*A22)-9.9697)/100</f>
+        <v>0.83564300000000002</v>
+      </c>
+      <c r="C22" s="6">
+        <f>(-3.3333*B22)+3.3333</f>
+        <v>0.54785118810000011</v>
+      </c>
+      <c r="D22" s="9">
+        <f>1-C22</f>
+        <v>0.45214881189999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
+        <v>145</v>
+      </c>
+      <c r="B23" s="5">
+        <f>((0.6681*A23)-9.9697)/100</f>
+        <v>0.86904799999999993</v>
+      </c>
+      <c r="C23" s="6">
+        <f>(-3.3333*B23)+3.3333</f>
+        <v>0.43650230160000003</v>
+      </c>
+      <c r="D23" s="9">
+        <f>1-C23</f>
+        <v>0.56349769839999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5">
+        <f>((0.6681*A24)-9.9697)/100</f>
+        <v>0.90245299999999995</v>
+      </c>
+      <c r="C24" s="6">
+        <f>(-3.3333*B24)+3.3333</f>
+        <v>0.32515341509999995</v>
+      </c>
+      <c r="D24" s="9">
+        <f>1-C24</f>
+        <v>0.67484658490000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
         <v>155</v>
       </c>
-      <c r="B12">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>158</v>
-      </c>
-      <c r="B13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>161</v>
-      </c>
-      <c r="B14">
-        <v>99</v>
-      </c>
+      <c r="B25" s="5">
+        <f>((0.6681*A25)-9.9697)/100</f>
+        <v>0.93585800000000008</v>
+      </c>
+      <c r="C25" s="6">
+        <f>(-3.3333*B25)+3.3333</f>
+        <v>0.21380452859999988</v>
+      </c>
+      <c r="D25" s="9">
+        <f>1-C25</f>
+        <v>0.78619547140000012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8">
+        <v>160</v>
+      </c>
+      <c r="B26" s="5">
+        <f>((0.6681*A26)-9.9697)/100</f>
+        <v>0.96926299999999999</v>
+      </c>
+      <c r="C26" s="6">
+        <f>(-3.3333*B26)+3.3333</f>
+        <v>0.10245564210000024</v>
+      </c>
+      <c r="D26" s="9">
+        <f>1-C26</f>
+        <v>0.89754435789999976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1">
+      <c r="A27" s="10">
+        <v>165</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <f>(-3.3333*B27)+3.3333</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>1-C27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="18855" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="510" yWindow="675" windowWidth="18855" windowHeight="7560" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>time</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>%Fat</t>
+  </si>
+  <si>
+    <t>%Carbs</t>
+  </si>
+  <si>
+    <t>%VO2max</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -356,6 +362,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,7 +454,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1"/>
@@ -394,10 +471,61 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1306,11 +1434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115756416"/>
-        <c:axId val="115762304"/>
+        <c:axId val="85600128"/>
+        <c:axId val="85601664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115756416"/>
+        <c:axId val="85600128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,12 +1448,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115762304"/>
+        <c:crossAx val="85601664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115762304"/>
+        <c:axId val="85601664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,13 +1464,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115756416"/>
+        <c:crossAx val="85600128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1708,11 +1837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115795456"/>
-        <c:axId val="115796992"/>
+        <c:axId val="85630976"/>
+        <c:axId val="85632512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115795456"/>
+        <c:axId val="85630976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1725,12 +1854,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115796992"/>
+        <c:crossAx val="85632512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115796992"/>
+        <c:axId val="85632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1743,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115795456"/>
+        <c:crossAx val="85630976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2085,11 +2214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123227136"/>
-        <c:axId val="123228928"/>
+        <c:axId val="87001728"/>
+        <c:axId val="87007616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123227136"/>
+        <c:axId val="87001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2101,12 +2230,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123228928"/>
+        <c:crossAx val="87007616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123228928"/>
+        <c:axId val="87007616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2119,7 +2248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123227136"/>
+        <c:crossAx val="87001728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2328,11 +2457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123279232"/>
-        <c:axId val="123280768"/>
+        <c:axId val="89283584"/>
+        <c:axId val="89289472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123279232"/>
+        <c:axId val="89283584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2345,12 +2474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123280768"/>
+        <c:crossAx val="89289472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123280768"/>
+        <c:axId val="89289472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -2362,7 +2491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123279232"/>
+        <c:crossAx val="89283584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2488,11 +2617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127156608"/>
-        <c:axId val="125237888"/>
+        <c:axId val="89356160"/>
+        <c:axId val="89357696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127156608"/>
+        <c:axId val="89356160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2504,12 +2633,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125237888"/>
+        <c:crossAx val="89357696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125237888"/>
+        <c:axId val="89357696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127156608"/>
+        <c:crossAx val="89356160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2528,6 +2657,423 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heart Rate vs %VO2Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1733888888888889"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%VO2Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8650164430708906E-3"/>
+                  <c:y val="0.50599462738390577"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                      <a:t>y = 0.0101x - 0.6486
+R² = 0.9676</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.12280701754385964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0643274853801165E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10818713450292397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6491228070175419E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11695906432748537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20760233918128651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27777777777777773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27192982456140352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34795321637426901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41812865497076024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40350877192982454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48538011695906436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48245614035087714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42690058479532161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49122807017543857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58771929824561397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62573099415204669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67836257309941517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62280701754385959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64912280701754377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76608187134502914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72514619883040932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78070175438596479</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7192982456140351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86257309941520466</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95614035087719296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9385964912280701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97076023391812871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="89602688"/>
+        <c:axId val="99017088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89602688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99017088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99017088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89602688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41322977443819037"/>
+          <c:y val="0.78807464135476213"/>
+          <c:w val="0.18128909019794492"/>
+          <c:h val="7.8921621355056051E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2704,6 +3250,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3001,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4148,7 +4726,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4780,18 +5358,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4921,7 +5500,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1"/>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
@@ -4935,183 +5514,405 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
         <v>120</v>
       </c>
       <c r="B18" s="5">
-        <f>((0.6681*A18)-9.9697)/100</f>
+        <f t="shared" ref="B18:B26" si="2">((0.6681*A18)-9.9697)/100</f>
         <v>0.70202299999999995</v>
       </c>
       <c r="C18" s="6">
-        <f>(-3.3333*B18)+3.3333</f>
+        <f t="shared" ref="C18:C27" si="3">(-3.3333*B18)+3.3333</f>
         <v>0.99324673409999997</v>
       </c>
       <c r="D18" s="9">
-        <f>1-C18</f>
+        <f t="shared" ref="D18:D27" si="4">1-C18</f>
         <v>6.7532659000000272E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>125</v>
       </c>
       <c r="B19" s="5">
-        <f>((0.6681*A19)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.73542799999999997</v>
       </c>
       <c r="C19" s="6">
-        <f>(-3.3333*B19)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.8818978475999999</v>
       </c>
       <c r="D19" s="9">
-        <f>1-C19</f>
+        <f t="shared" si="4"/>
         <v>0.1181021524000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="8">
         <v>130</v>
       </c>
       <c r="B20" s="5">
-        <f>((0.6681*A20)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.7688330000000001</v>
       </c>
       <c r="C20" s="6">
-        <f>(-3.3333*B20)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.77054896109999982</v>
       </c>
       <c r="D20" s="9">
-        <f>1-C20</f>
+        <f t="shared" si="4"/>
         <v>0.22945103890000018</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="8">
         <v>135</v>
       </c>
       <c r="B21" s="5">
-        <f>((0.6681*A21)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.80223800000000001</v>
       </c>
       <c r="C21" s="6">
-        <f>(-3.3333*B21)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.65920007460000019</v>
       </c>
       <c r="D21" s="9">
-        <f>1-C21</f>
+        <f t="shared" si="4"/>
         <v>0.34079992539999981</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="8">
         <v>140</v>
       </c>
       <c r="B22" s="5">
-        <f>((0.6681*A22)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.83564300000000002</v>
       </c>
       <c r="C22" s="6">
-        <f>(-3.3333*B22)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.54785118810000011</v>
       </c>
       <c r="D22" s="9">
-        <f>1-C22</f>
+        <f t="shared" si="4"/>
         <v>0.45214881189999989</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="8">
         <v>145</v>
       </c>
       <c r="B23" s="5">
-        <f>((0.6681*A23)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.86904799999999993</v>
       </c>
       <c r="C23" s="6">
-        <f>(-3.3333*B23)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.43650230160000003</v>
       </c>
       <c r="D23" s="9">
-        <f>1-C23</f>
+        <f t="shared" si="4"/>
         <v>0.56349769839999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="8">
         <v>150</v>
       </c>
       <c r="B24" s="5">
-        <f>((0.6681*A24)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.90245299999999995</v>
       </c>
       <c r="C24" s="6">
-        <f>(-3.3333*B24)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.32515341509999995</v>
       </c>
       <c r="D24" s="9">
-        <f>1-C24</f>
+        <f t="shared" si="4"/>
         <v>0.67484658490000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="8">
         <v>155</v>
       </c>
       <c r="B25" s="5">
-        <f>((0.6681*A25)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.93585800000000008</v>
       </c>
       <c r="C25" s="6">
-        <f>(-3.3333*B25)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.21380452859999988</v>
       </c>
       <c r="D25" s="9">
-        <f>1-C25</f>
+        <f t="shared" si="4"/>
         <v>0.78619547140000012</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="8">
         <v>160</v>
       </c>
       <c r="B26" s="5">
-        <f>((0.6681*A26)-9.9697)/100</f>
+        <f t="shared" si="2"/>
         <v>0.96926299999999999</v>
       </c>
       <c r="C26" s="6">
-        <f>(-3.3333*B26)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0.10245564210000024</v>
       </c>
       <c r="D26" s="9">
-        <f>1-C26</f>
+        <f t="shared" si="4"/>
         <v>0.89754435789999976</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1">
+    <row r="27" spans="1:5" ht="15" thickBot="1">
       <c r="A27" s="10">
         <v>165</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="11">
-        <f>(-3.3333*B27)+3.3333</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D27" s="12">
-        <f>1-C27</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+    <row r="31" spans="1:5" ht="15" thickBot="1"/>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A32" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="29">
+        <v>120</v>
+      </c>
+      <c r="B33" s="30">
+        <f t="shared" ref="B33:B41" si="5">((0.6681*A33)-9.9697)/100</f>
+        <v>0.70202299999999995</v>
+      </c>
+      <c r="C33" s="31">
+        <f t="shared" ref="C33:C42" si="6">(-3.3333*B33)+3.3333</f>
+        <v>0.99324673409999997</v>
+      </c>
+      <c r="D33" s="32">
+        <f t="shared" ref="D33:D42" si="7">1-C33</f>
+        <v>6.7532659000000272E-3</v>
+      </c>
+      <c r="E33" s="33">
+        <f>(0.0101*A33)-0.6486</f>
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20">
+        <v>125</v>
+      </c>
+      <c r="B34" s="21">
+        <f t="shared" si="5"/>
+        <v>0.73542799999999997</v>
+      </c>
+      <c r="C34" s="22">
+        <f t="shared" si="6"/>
+        <v>0.8818978475999999</v>
+      </c>
+      <c r="D34" s="23">
+        <f t="shared" si="7"/>
+        <v>0.1181021524000001</v>
+      </c>
+      <c r="E34" s="28">
+        <f t="shared" ref="E34:E42" si="8">(0.0101*A34)-0.6486</f>
+        <v>0.6139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="20">
+        <v>130</v>
+      </c>
+      <c r="B35" s="21">
+        <f t="shared" si="5"/>
+        <v>0.7688330000000001</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="6"/>
+        <v>0.77054896109999982</v>
+      </c>
+      <c r="D35" s="23">
+        <f t="shared" si="7"/>
+        <v>0.22945103890000018</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="8"/>
+        <v>0.66439999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20">
+        <v>135</v>
+      </c>
+      <c r="B36" s="21">
+        <f t="shared" si="5"/>
+        <v>0.80223800000000001</v>
+      </c>
+      <c r="C36" s="22">
+        <f t="shared" si="6"/>
+        <v>0.65920007460000019</v>
+      </c>
+      <c r="D36" s="23">
+        <f t="shared" si="7"/>
+        <v>0.34079992539999981</v>
+      </c>
+      <c r="E36" s="28">
+        <f t="shared" si="8"/>
+        <v>0.71489999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="20">
+        <v>140</v>
+      </c>
+      <c r="B37" s="21">
+        <f t="shared" si="5"/>
+        <v>0.83564300000000002</v>
+      </c>
+      <c r="C37" s="22">
+        <f t="shared" si="6"/>
+        <v>0.54785118810000011</v>
+      </c>
+      <c r="D37" s="23">
+        <f t="shared" si="7"/>
+        <v>0.45214881189999989</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" si="8"/>
+        <v>0.76539999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="20">
+        <v>145</v>
+      </c>
+      <c r="B38" s="21">
+        <f t="shared" si="5"/>
+        <v>0.86904799999999993</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" si="6"/>
+        <v>0.43650230160000003</v>
+      </c>
+      <c r="D38" s="23">
+        <f t="shared" si="7"/>
+        <v>0.56349769839999997</v>
+      </c>
+      <c r="E38" s="28">
+        <f t="shared" si="8"/>
+        <v>0.81589999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="20">
+        <v>150</v>
+      </c>
+      <c r="B39" s="21">
+        <f t="shared" si="5"/>
+        <v>0.90245299999999995</v>
+      </c>
+      <c r="C39" s="22">
+        <f t="shared" si="6"/>
+        <v>0.32515341509999995</v>
+      </c>
+      <c r="D39" s="23">
+        <f t="shared" si="7"/>
+        <v>0.67484658490000005</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" si="8"/>
+        <v>0.86639999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="20">
+        <v>155</v>
+      </c>
+      <c r="B40" s="21">
+        <f t="shared" si="5"/>
+        <v>0.93585800000000008</v>
+      </c>
+      <c r="C40" s="22">
+        <f t="shared" si="6"/>
+        <v>0.21380452859999988</v>
+      </c>
+      <c r="D40" s="23">
+        <f t="shared" si="7"/>
+        <v>0.78619547140000012</v>
+      </c>
+      <c r="E40" s="28">
+        <f t="shared" si="8"/>
+        <v>0.91689999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="20">
+        <v>160</v>
+      </c>
+      <c r="B41" s="21">
+        <f t="shared" si="5"/>
+        <v>0.96926299999999999</v>
+      </c>
+      <c r="C41" s="22">
+        <f t="shared" si="6"/>
+        <v>0.10245564210000024</v>
+      </c>
+      <c r="D41" s="23">
+        <f t="shared" si="7"/>
+        <v>0.89754435789999976</v>
+      </c>
+      <c r="E41" s="28">
+        <f t="shared" si="8"/>
+        <v>0.96739999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="24">
+        <v>165</v>
+      </c>
+      <c r="B42" s="25">
+        <v>1</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="27">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
+++ b/Studies/Ketogenic Diet/Energy Output/VO2max Testing/My Vo2 max tests/VO2max-2018-05-04/VO2Max Testing DGG-2018-05-04.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="675" windowWidth="18855" windowHeight="7560" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="510" yWindow="675" windowWidth="18855" windowHeight="7560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RER_HR" sheetId="6" r:id="rId2"/>
     <sheet name="RER_HR_Cut" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="PercentVO2_RER" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -454,7 +455,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1"/>
@@ -526,6 +527,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Accent" xfId="7"/>
@@ -1434,11 +1436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85600128"/>
-        <c:axId val="85601664"/>
+        <c:axId val="178399104"/>
+        <c:axId val="178400640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85600128"/>
+        <c:axId val="178399104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,12 +1450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85601664"/>
+        <c:crossAx val="178400640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85601664"/>
+        <c:axId val="178400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85600128"/>
+        <c:crossAx val="178399104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,7 +1713,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.12280701754385964</c:v>
@@ -1837,11 +1839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85630976"/>
-        <c:axId val="85632512"/>
+        <c:axId val="131018752"/>
+        <c:axId val="131020288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85630976"/>
+        <c:axId val="131018752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1854,12 +1856,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85632512"/>
+        <c:crossAx val="131020288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85632512"/>
+        <c:axId val="131020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1868,11 +1870,11 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85630976"/>
+        <c:crossAx val="131018752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1933,7 +1935,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2214,11 +2215,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87001728"/>
-        <c:axId val="87007616"/>
+        <c:axId val="131033728"/>
+        <c:axId val="131035520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87001728"/>
+        <c:axId val="131033728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2230,12 +2231,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87007616"/>
+        <c:crossAx val="131035520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87007616"/>
+        <c:axId val="131035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2248,7 +2249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87001728"/>
+        <c:crossAx val="131033728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2309,7 +2310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2457,11 +2457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89283584"/>
-        <c:axId val="89289472"/>
+        <c:axId val="131232896"/>
+        <c:axId val="131234432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89283584"/>
+        <c:axId val="131232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2474,12 +2474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89289472"/>
+        <c:crossAx val="131234432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89289472"/>
+        <c:axId val="131234432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -2491,7 +2491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89283584"/>
+        <c:crossAx val="131232896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2617,11 +2617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89356160"/>
-        <c:axId val="89357696"/>
+        <c:axId val="131006464"/>
+        <c:axId val="131008000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89356160"/>
+        <c:axId val="131006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2633,12 +2633,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89357696"/>
+        <c:crossAx val="131008000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89357696"/>
+        <c:axId val="131008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89356160"/>
+        <c:crossAx val="131006464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2896,7 +2896,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0.12280701754385964</c:v>
@@ -3022,11 +3022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="89602688"/>
-        <c:axId val="99017088"/>
+        <c:axId val="131246336"/>
+        <c:axId val="131248128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89602688"/>
+        <c:axId val="131246336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3039,12 +3039,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99017088"/>
+        <c:crossAx val="131248128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99017088"/>
+        <c:axId val="131248128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3053,11 +3053,11 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89602688"/>
+        <c:crossAx val="131246336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3088,20 +3088,465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%VO2max(x)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RER(y)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20947222222222223"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7202973111896543E-2"/>
+                  <c:y val="-0.1306747757276609"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = -1.2618x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t> + 3.2658x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t> - 1.8989x + 0.9264
+R² = </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                      <a:t>0.9519</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.12280701754385964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0643274853801165E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10818713450292397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6491228070175419E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11695906432748537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20760233918128651</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17251461988304093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22807017543859648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27777777777777773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27192982456140352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34795321637426901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41812865497076024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40350877192982454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.48538011695906436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48245614035087714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42690058479532161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49122807017543857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58771929824561397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62573099415204669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67836257309941517</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62280701754385959</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64912280701754377</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76608187134502914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72514619883040932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78070175438596479</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.7192982456140351</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85964912280701744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86257309941520466</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95614035087719296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9385964912280701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97076023391812871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="178412160"/>
+        <c:axId val="133501312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178412160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133501312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="133501312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178412160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17541601049868771"/>
+          <c:y val="0.42316929133858266"/>
+          <c:w val="0.17065334770761972"/>
+          <c:h val="8.9964743213068521E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>42861</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3122,16 +3567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3282,6 +3727,43 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3579,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3631,7 +4113,7 @@
       <c r="D2">
         <v>78</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="35">
         <f>$B2/$B$44</f>
         <v>0.12280701754385964</v>
       </c>
@@ -3657,7 +4139,7 @@
       <c r="D3">
         <v>78</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="35">
         <f t="shared" ref="E3:E42" si="2">$B3/$B$44</f>
         <v>9.0643274853801165E-2</v>
       </c>
@@ -3683,7 +4165,7 @@
       <c r="D4">
         <v>70</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="35">
         <f t="shared" si="2"/>
         <v>0.10818713450292397</v>
       </c>
@@ -3709,7 +4191,7 @@
       <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="35">
         <f t="shared" si="2"/>
         <v>9.6491228070175419E-2</v>
       </c>
@@ -3735,7 +4217,7 @@
       <c r="D6">
         <v>84</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="35">
         <f t="shared" si="2"/>
         <v>0.10526315789473684</v>
       </c>
@@ -3761,7 +4243,7 @@
       <c r="D7">
         <v>76</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="35">
         <f t="shared" si="2"/>
         <v>0.11695906432748537</v>
       </c>
@@ -3787,7 +4269,7 @@
       <c r="D8">
         <v>84</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="35">
         <f t="shared" si="2"/>
         <v>0.17251461988304093</v>
       </c>
@@ -3813,7 +4295,7 @@
       <c r="D9">
         <v>92</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="35">
         <f t="shared" si="2"/>
         <v>0.20760233918128651</v>
       </c>
@@ -3839,7 +4321,7 @@
       <c r="D10">
         <v>84</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="35">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
@@ -3865,7 +4347,7 @@
       <c r="D11">
         <v>82</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="35">
         <f t="shared" si="2"/>
         <v>0.17251461988304093</v>
       </c>
@@ -3891,7 +4373,7 @@
       <c r="D12">
         <v>88</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="35">
         <f t="shared" si="2"/>
         <v>0.22807017543859648</v>
       </c>
@@ -3917,7 +4399,7 @@
       <c r="D13">
         <v>88</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="35">
         <f t="shared" si="2"/>
         <v>0.22807017543859648</v>
       </c>
@@ -3943,7 +4425,7 @@
       <c r="D14">
         <v>90</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="35">
         <f t="shared" si="2"/>
         <v>0.27777777777777773</v>
       </c>
@@ -3969,7 +4451,7 @@
       <c r="D15">
         <v>94</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="35">
         <f t="shared" si="2"/>
         <v>0.27192982456140352</v>
       </c>
@@ -3995,7 +4477,7 @@
       <c r="D16">
         <v>97</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="35">
         <f t="shared" si="2"/>
         <v>0.34795321637426901</v>
       </c>
@@ -4021,7 +4503,7 @@
       <c r="D17">
         <v>99</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="35">
         <f t="shared" si="2"/>
         <v>0.41812865497076024</v>
       </c>
@@ -4047,7 +4529,7 @@
       <c r="D18">
         <v>102</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="35">
         <f t="shared" si="2"/>
         <v>0.40350877192982454</v>
       </c>
@@ -4073,7 +4555,7 @@
       <c r="D19">
         <v>103</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="35">
         <f t="shared" si="2"/>
         <v>0.48538011695906436</v>
       </c>
@@ -4099,7 +4581,7 @@
       <c r="D20">
         <v>106</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="35">
         <f t="shared" si="2"/>
         <v>0.48245614035087714</v>
       </c>
@@ -4125,7 +4607,7 @@
       <c r="D21">
         <v>114</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="35">
         <f t="shared" si="2"/>
         <v>0.42690058479532161</v>
       </c>
@@ -4151,7 +4633,7 @@
       <c r="D22">
         <v>106</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="35">
         <f t="shared" si="2"/>
         <v>0.49122807017543857</v>
       </c>
@@ -4177,7 +4659,7 @@
       <c r="D23">
         <v>109</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="35">
         <f t="shared" si="2"/>
         <v>0.58771929824561397</v>
       </c>
@@ -4203,7 +4685,7 @@
       <c r="D24">
         <v>117</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="35">
         <f t="shared" si="2"/>
         <v>0.62573099415204669</v>
       </c>
@@ -4229,7 +4711,7 @@
       <c r="D25">
         <v>124</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="35">
         <f t="shared" si="2"/>
         <v>0.67836257309941517</v>
       </c>
@@ -4255,7 +4737,7 @@
       <c r="D26">
         <v>126</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="35">
         <f t="shared" si="2"/>
         <v>0.62280701754385959</v>
       </c>
@@ -4281,7 +4763,7 @@
       <c r="D27">
         <v>129</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="35">
         <f t="shared" si="2"/>
         <v>0.64912280701754377</v>
       </c>
@@ -4307,7 +4789,7 @@
       <c r="D28">
         <v>135</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="35">
         <f t="shared" si="2"/>
         <v>0.76608187134502914</v>
       </c>
@@ -4333,7 +4815,7 @@
       <c r="D29">
         <v>138</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="35">
         <f t="shared" si="2"/>
         <v>0.72514619883040932</v>
       </c>
@@ -4359,7 +4841,7 @@
       <c r="D30">
         <v>138</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="35">
         <f t="shared" si="2"/>
         <v>0.78070175438596479</v>
       </c>
@@ -4385,7 +4867,7 @@
       <c r="D31">
         <v>139</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="35">
         <f t="shared" si="2"/>
         <v>0.7192982456140351</v>
       </c>
@@ -4411,7 +4893,7 @@
       <c r="D32">
         <v>143</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="35">
         <f t="shared" si="2"/>
         <v>0.85964912280701744</v>
       </c>
@@ -4437,7 +4919,7 @@
       <c r="D33">
         <v>149</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="35">
         <f t="shared" si="2"/>
         <v>0.85964912280701744</v>
       </c>
@@ -4463,7 +4945,7 @@
       <c r="D34">
         <v>155</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="35">
         <f t="shared" si="2"/>
         <v>0.86257309941520466</v>
       </c>
@@ -4489,7 +4971,7 @@
       <c r="D35">
         <v>158</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="35">
         <f t="shared" si="2"/>
         <v>0.95614035087719296</v>
       </c>
@@ -4515,7 +4997,7 @@
       <c r="D36">
         <v>161</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="35">
         <f t="shared" si="2"/>
         <v>0.9385964912280701</v>
       </c>
@@ -4541,7 +5023,7 @@
       <c r="D37">
         <v>165</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="35">
         <f t="shared" si="2"/>
         <v>0.97076023391812871</v>
       </c>
@@ -4570,7 +5052,7 @@
       <c r="D38">
         <v>167</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4599,7 +5081,7 @@
       <c r="D39">
         <v>169</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="35">
         <f t="shared" si="2"/>
         <v>0.98830409356725135</v>
       </c>
@@ -4625,7 +5107,7 @@
       <c r="D40">
         <v>173</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="35">
         <f t="shared" si="2"/>
         <v>0.8157894736842104</v>
       </c>
@@ -4654,7 +5136,7 @@
       <c r="D41">
         <v>170</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="35">
         <f t="shared" si="2"/>
         <v>0.92690058479532156</v>
       </c>
@@ -4680,7 +5162,7 @@
       <c r="D42">
         <v>161</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="35">
         <f t="shared" si="2"/>
         <v>0.29532163742690054</v>
       </c>
@@ -5360,7 +5842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -5915,4 +6397,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>